--- a/TestExportCase1.xlsx
+++ b/TestExportCase1.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5ef074c61d2afe73/Desktop/Stefano/In_the_NL/Thesis/Code/git_hub_repos/EconomicDispatch/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_348758BFDC461A1567DEB1B92119339EFEBD6244" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Generator_PowerOutput" sheetId="1" r:id="rId1"/>
@@ -18,7 +24,7 @@
     <sheet name="Flow" sheetId="9" r:id="rId9"/>
     <sheet name="Voltage_Angle" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -85,8 +91,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,13 +155,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -193,7 +207,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -227,6 +241,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -261,9 +276,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -436,14 +452,271 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>25</v>
+      </c>
+      <c r="D2">
+        <v>26</v>
+      </c>
+      <c r="E2">
+        <v>30</v>
+      </c>
+      <c r="F2">
+        <v>45</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>150</v>
+      </c>
+      <c r="C4">
+        <v>150</v>
+      </c>
+      <c r="D4">
+        <v>150</v>
+      </c>
+      <c r="E4">
+        <v>150</v>
+      </c>
+      <c r="F4">
+        <v>150</v>
+      </c>
+      <c r="G4">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>5636</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>5636</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -463,30 +736,30 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>2818</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -509,27 +782,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B4">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -537,68 +810,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -618,35 +838,35 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2">
-        <v>5636</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -664,27 +884,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B4">
-        <v>5636</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -692,219 +912,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>2818</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <v>-0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>-0</v>
-      </c>
-      <c r="G3">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -924,7 +940,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -953,14 +969,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -980,7 +996,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,14 +1025,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1036,7 +1052,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1047,10 +1063,10 @@
         <v>10</v>
       </c>
       <c r="D2">
-        <v>5.555555555555555</v>
+        <v>5.5555555555555554</v>
       </c>
       <c r="E2">
-        <v>5.555555555555555</v>
+        <v>5.5555555555555554</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1065,14 +1081,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1092,7 +1108,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1100,16 +1116,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -1121,14 +1137,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1148,27 +1164,27 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
